--- a/数据记录.xlsx
+++ b/数据记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="体重周报" sheetId="1" r:id="rId1"/>
@@ -415,8 +415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -610,7 +610,12 @@
       <c r="D10">
         <v>134.30000000000001</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1">
+        <v>44265</v>
+      </c>
+      <c r="F10">
+        <v>128.4</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
@@ -625,7 +630,12 @@
       <c r="D11">
         <v>133.30000000000001</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1">
+        <v>44272</v>
+      </c>
+      <c r="F11">
+        <v>128.4</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
@@ -640,7 +650,12 @@
       <c r="D12">
         <v>132.5</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1">
+        <v>44279</v>
+      </c>
+      <c r="F12">
+        <v>129.80000000000001</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
@@ -655,6 +670,12 @@
       <c r="D13">
         <v>131.4</v>
       </c>
+      <c r="E13" s="1">
+        <v>44286</v>
+      </c>
+      <c r="F13">
+        <v>129.4</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
@@ -669,6 +690,12 @@
       <c r="D14">
         <v>131.6</v>
       </c>
+      <c r="E14" s="1">
+        <v>44293</v>
+      </c>
+      <c r="F14">
+        <v>128.80000000000001</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
@@ -683,6 +710,12 @@
       <c r="D15">
         <v>132.30000000000001</v>
       </c>
+      <c r="E15" s="1">
+        <v>44300</v>
+      </c>
+      <c r="F15">
+        <v>129</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
@@ -697,8 +730,14 @@
       <c r="D16">
         <v>134.19999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E16" s="1">
+        <v>44307</v>
+      </c>
+      <c r="F16">
+        <v>130.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>43621</v>
       </c>
@@ -711,8 +750,14 @@
       <c r="D17">
         <v>133.4</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E17" s="1">
+        <v>44314</v>
+      </c>
+      <c r="F17">
+        <v>131.19999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>43628</v>
       </c>
@@ -725,8 +770,14 @@
       <c r="D18">
         <v>134.1</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E18" s="1">
+        <v>44328</v>
+      </c>
+      <c r="F18">
+        <v>132.80000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>43635</v>
       </c>
@@ -739,8 +790,14 @@
       <c r="D19">
         <v>133.4</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E19" s="1">
+        <v>44335</v>
+      </c>
+      <c r="F19">
+        <v>129.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>43642</v>
       </c>
@@ -753,8 +810,14 @@
       <c r="D20">
         <v>133.30000000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E20" s="1">
+        <v>44342</v>
+      </c>
+      <c r="F20">
+        <v>129.80000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>43649</v>
       </c>
@@ -767,8 +830,14 @@
       <c r="D21">
         <v>132.69999999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E21" s="1">
+        <v>44349</v>
+      </c>
+      <c r="F21">
+        <v>129.80000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>43656</v>
       </c>
@@ -782,7 +851,7 @@
         <v>133.1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>43663</v>
       </c>
@@ -796,7 +865,7 @@
         <v>133.80000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>43670</v>
       </c>
@@ -810,7 +879,7 @@
         <v>134.80000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>43677</v>
       </c>
@@ -824,7 +893,7 @@
         <v>133.4</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>43684</v>
       </c>
@@ -838,7 +907,7 @@
         <v>132.4</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>43691</v>
       </c>
@@ -852,7 +921,7 @@
         <v>131.6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>43698</v>
       </c>
@@ -866,7 +935,7 @@
         <v>132.19999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>43705</v>
       </c>
@@ -880,7 +949,7 @@
         <v>132.6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>43712</v>
       </c>
@@ -894,7 +963,7 @@
         <v>131.4</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>43719</v>
       </c>
@@ -908,7 +977,7 @@
         <v>129.80000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>43726</v>
       </c>
@@ -1129,8 +1198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1268,6 +1337,12 @@
       <c r="I4" t="s">
         <v>2</v>
       </c>
+      <c r="J4">
+        <v>136051</v>
+      </c>
+      <c r="L4">
+        <v>3372</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
@@ -1297,6 +1372,12 @@
       <c r="I5" t="s">
         <v>3</v>
       </c>
+      <c r="J5">
+        <v>141628</v>
+      </c>
+      <c r="L5">
+        <v>5127</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
@@ -1323,6 +1404,12 @@
       <c r="I6" t="s">
         <v>4</v>
       </c>
+      <c r="J6">
+        <v>139476</v>
+      </c>
+      <c r="L6">
+        <v>-2152</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
@@ -1518,5 +1605,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>